--- a/Supplementary_materials/Supplementary_Material_1_ NAA_Compositional_data.xlsx
+++ b/Supplementary_materials/Supplementary_Material_1_ NAA_Compositional_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ck645_cam_ac_uk/Documents/Documents/Uzbekistan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/ck645_cam_ac_uk/Documents/Documents/GitHub/Central_Asia_islamic_ceramics/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11" documentId="8_{B0E1EC89-BD00-4118-BF10-32DE5466512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D0BC49E-BA8E-4722-BD7A-5D9FCC2D61EE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42E71CEF-24CA-46A7-87C0-87D91CF6A9C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{42E71CEF-24CA-46A7-87C0-87D91CF6A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="NAA data" sheetId="1" r:id="rId1"/>
@@ -2429,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE6349C-7C53-4F94-8DB7-00672F0BC206}">
   <dimension ref="A1:AJ191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -33102,8 +33102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4AFEA9-97FA-4C3F-BA1E-027E934BFDA3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33713,8 +33713,8 @@
   <dimension ref="A1:C433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="13" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
